--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2194994.614340099</v>
+        <v>-2197672.49973896</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.95836603255687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>40.71935445273979</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.23930645615799</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>163.6405109005542</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>258.6006493101798</v>
+        <v>209.8685059222802</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>88.62361179078226</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>189.1697759208467</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>144.238081928128</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>95.39977084642729</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>116.2873251119321</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.098718430618</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777477</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>280.6776926327207</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.628001464564</v>
+        <v>872.3258693613959</v>
       </c>
       <c r="C2" t="n">
-        <v>832.6654845241519</v>
+        <v>503.3633524209842</v>
       </c>
       <c r="D2" t="n">
-        <v>832.6654845241519</v>
+        <v>503.3633524209842</v>
       </c>
       <c r="E2" t="n">
-        <v>832.6654845241519</v>
+        <v>503.3633524209842</v>
       </c>
       <c r="F2" t="n">
-        <v>421.6795797345444</v>
+        <v>92.37744763137664</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>92.37744763137664</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>92.37744763137664</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>1258.925709425518</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056666</v>
+        <v>1590.995858314208</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056666</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056666</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056666</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056666</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>281.0354892056666</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>132.2965910691728</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2294.462476561642</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2294.462476561642</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>2039.777988355755</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>2039.777988355755</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056666</v>
+        <v>1811.788437457738</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056666</v>
+        <v>1590.995858314208</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>1922.846283109815</v>
+        <v>2019.2880512361</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.706951134003</v>
+        <v>2019.2880512361</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.2332512597245</v>
+        <v>714.4124535040152</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>545.4762705761083</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>395.3596311637725</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>395.3596311637725</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329316</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>736.6399721947025</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W7" t="n">
-        <v>447.2228021577419</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X7" t="n">
-        <v>219.2332512597245</v>
+        <v>896.0609183342549</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.2332512597245</v>
+        <v>896.0609183342549</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>920.7766538636581</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>920.7766538636581</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>509.7907490740506</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1741.10068595064</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1519.334070520166</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1519.334070520166</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1264.649582314279</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>975.2324122773183</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>975.2324122773183</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5133,13 +5133,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5370,10 +5370,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,49 +5744,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
         <v>2496.057455973196</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,19 +7120,19 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,25 +7345,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>35.91627445172503</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929824</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.7754756309237</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>261.6971623605411</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>24.9905582197307</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>294.5391914113972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.55728874774258</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>135.8503182118959</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.257951202384618</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5.50678175652348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215494</v>
+        <v>48691.36674215495</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982127</v>
@@ -26323,28 +26323,28 @@
         <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675047</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>60535.99497675045</v>
       </c>
-      <c r="H2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675044</v>
-      </c>
       <c r="J2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982119</v>
-      </c>
       <c r="L2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26396,7 +26396,7 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38655.050465176</v>
+        <v>38655.05046517603</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="J4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985003</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985002</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1197653.239738785</v>
+        <v>-1198082.798605374</v>
       </c>
       <c r="C6" t="n">
-        <v>-168085.9133921259</v>
+        <v>-168085.913392126</v>
       </c>
       <c r="D6" t="n">
-        <v>-327507.1833900178</v>
+        <v>-327507.1833900177</v>
       </c>
       <c r="E6" t="n">
-        <v>-375336.1970112684</v>
+        <v>-375370.9349367041</v>
       </c>
       <c r="F6" t="n">
-        <v>-49923.73520391323</v>
+        <v>-49958.47312934895</v>
       </c>
       <c r="G6" t="n">
-        <v>-49923.73520391327</v>
+        <v>-49958.47312934894</v>
       </c>
       <c r="H6" t="n">
-        <v>-49923.73520391328</v>
+        <v>-49958.47312934893</v>
       </c>
       <c r="I6" t="n">
-        <v>-49923.73520391328</v>
+        <v>-49958.47312934895</v>
       </c>
       <c r="J6" t="n">
         <v>-245946.9385375585</v>
       </c>
       <c r="K6" t="n">
-        <v>-58914.04273394425</v>
+        <v>-58914.0427339442</v>
       </c>
       <c r="L6" t="n">
         <v>-107208.0127421349</v>
       </c>
       <c r="M6" t="n">
-        <v>-143969.0706694561</v>
+        <v>-143969.070669456</v>
       </c>
       <c r="N6" t="n">
-        <v>-58914.0427339442</v>
+        <v>-58914.04273394421</v>
       </c>
       <c r="O6" t="n">
-        <v>-78341.76072757601</v>
+        <v>-78341.76072757598</v>
       </c>
       <c r="P6" t="n">
-        <v>-58914.04273394422</v>
+        <v>-58914.04273394421</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.32139020186423</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>75.19190926707188</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>57.10818509665771</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>111.1304513682892</v>
+        <v>159.8625947561889</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>56.79743623214898</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>62.96786740298126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>266.6836437253254</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>94.36925448501461</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.97297820841818e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696265</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>152.3969967825795</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
